--- a/Seminar2/семинар2.xlsx
+++ b/Seminar2/семинар2.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AyDaR\Downloads\фин матматик\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Елена\Desktop\Geekbrains\Финансовая математика\Seminar2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Лист8" sheetId="8" r:id="rId8"/>
     <sheet name="Лист9" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
   <si>
     <t>год</t>
   </si>
@@ -64,9 +64,6 @@
     <t>NPV</t>
   </si>
   <si>
-    <t>ЧПС-1</t>
-  </si>
-  <si>
     <t>поток</t>
   </si>
   <si>
@@ -137,18 +134,159 @@
   </si>
   <si>
     <t>поэтому выбираем его</t>
+  </si>
+  <si>
+    <t>Есть инвестиционный проект с денежными потоками по годам, указанными ниже.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(то есть непосредственно по формуле NPV), если стоимость денег для инвестора равна 12%. Также, применить расчеты на основе </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определить чистую приведенную стоимость (NPV) этого проекта без применения встроенных функций Excel </t>
+  </si>
+  <si>
+    <t>дисконтирующих множителей.</t>
+  </si>
+  <si>
+    <t>стоимость денег</t>
+  </si>
+  <si>
+    <t>Определить внутреннюю норму доходности проекта путем использования встроенной функции Excel.</t>
+  </si>
+  <si>
+    <t>Определить NPV, если первые 4 года ставка дисконтирования равна 15%, а последующие 4 года становится 10%.</t>
+  </si>
+  <si>
+    <t>Есть инвестиционный проект со следующими денежными потоками по годам.</t>
+  </si>
+  <si>
+    <t>Если стоимость денег для инвестора равна 10% годовых, то какой проект следует выбрать и почему?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инвестору предлагают два проекта на выбор. Аналитик определил, что проект А имеет NPV=115 млн.руб. и IRR = 25%. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проект Б имеет следующие денежные потоки: </t>
+  </si>
+  <si>
+    <t>NPV-1</t>
+  </si>
+  <si>
+    <t>NPV-2</t>
+  </si>
+  <si>
+    <t>Есть инвестиционный проект с денежными потоками по годам:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Необходимо принять решение, инвестируем в проект или нет, если ставка дисконтирования 15% годовых. </t>
+  </si>
+  <si>
+    <t>Проверить, если денежные потоки по кварталам.</t>
+  </si>
+  <si>
+    <t>Инвестор рассматривает инвестиционный проект со следующими параметрами:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> инвестиция в размере 50 млн руб. приносит затем ежеквартальную финансовую ренту в размере 3 млн руб/квартал в течение 5 лет. </t>
+  </si>
+  <si>
+    <t>Если стоимость денег для инвестора оценивается в 9% годовых, то следует ли ему принять этот инвестиционный проект?</t>
+  </si>
+  <si>
+    <t>инвестиция</t>
+  </si>
+  <si>
+    <t>фин.рента</t>
+  </si>
+  <si>
+    <t>период фин.ренты</t>
+  </si>
+  <si>
+    <t>срок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Есть два инвестиционных проекта со следующими денежными потоками. Для какого инвестора выгодней проект А, проект Б? </t>
+  </si>
+  <si>
+    <t>Для первого инвестора стоимость денег равна 10% годовых, а для второго инвестора 18% годовых.</t>
+  </si>
+  <si>
+    <t>первый инвестор</t>
+  </si>
+  <si>
+    <t>второй инвестор</t>
+  </si>
+  <si>
+    <t>Цена единицы продукции в бизнес-плане принята за 5 млн руб.</t>
+  </si>
+  <si>
+    <t>Инвестор построил денежные потоки по проекту и оказалось, что для него NPV = 0. Какова стоимость денег у инвестора?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Согласно бизнес-плану строительства завода по производству тракторов общие инвестиции в 0 году составят 500 млн руб., </t>
+  </si>
+  <si>
+    <t>и еще 250 млн руб. в 1 году. График производства продукции указан ниже.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Затраты на производство единицы продукции (себестоимость) составляют 2,7 млн руб/ед. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кроме того, каждый год после запуска производства тратится еще 70 млн руб. на содержание завода и офиса управляющей компании. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Налог в размере 20% годовых платится каждый год с прибыли завода, если она положительна </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(прибыль = выручка от продажи продукции минус себестоимость минус постоянные расходы на содержание завода и офиса). </t>
+  </si>
+  <si>
+    <t>В конце срока (в конце 9 года) предполагается продать завод по остаточной стоимости оборудования за 90 млн руб.</t>
+  </si>
+  <si>
+    <t>Для инвестиционного проекта определить срок окупаемости обыкновенный и дисконтированный, с точностью до 1 месяца.(12% годовых)</t>
+  </si>
+  <si>
+    <t>Определить индекс доходности.</t>
+  </si>
+  <si>
+    <t>Есть два инвестиционных проекта со следующими денежными потоками.</t>
+  </si>
+  <si>
+    <t>Инвестор хочет выбрать один из проектов по критерию ликвидности. Какой он должен выбрать?</t>
+  </si>
+  <si>
+    <t>PI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -177,7 +315,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -185,19 +323,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -478,146 +644,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="4">
         <v>2</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="4">
         <v>3</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="4">
         <v>4</v>
       </c>
-      <c r="H1" s="1">
-        <v>0.12</v>
+      <c r="H1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>-100</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>20</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>50</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>90</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>150</v>
       </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3">
-        <f>1/(1+$H$1)</f>
+      <c r="C3" s="4">
+        <f>1/(1+$B$6)</f>
         <v>0.89285714285714279</v>
       </c>
-      <c r="D3">
-        <f>C3/(1+$H$1)</f>
+      <c r="D3" s="4">
+        <f>C3/(1+$B$6)</f>
         <v>0.79719387755102022</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:F3" si="0">D3/(1+$H$1)</f>
+      <c r="E3" s="4">
+        <f>D3/(1+$B$6)</f>
         <v>0.71178024781341087</v>
       </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
+      <c r="F3" s="4">
+        <f>E3/(1+$B$6)</f>
         <v>0.6355180784048311</v>
       </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <f>B2*B3</f>
         <v>-100</v>
       </c>
-      <c r="C4">
-        <f t="shared" ref="C4:F4" si="1">C2*C3</f>
+      <c r="C4" s="4">
+        <f t="shared" ref="C4:F4" si="0">C2*C3</f>
         <v>17.857142857142854</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
         <v>39.85969387755101</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
         <v>64.060222303206984</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
         <v>95.327711760724668</v>
       </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <f>B2+C2/(1+H1)+D2/(1+H1)^2+E2/(1+H1)^3+F2/(1+H1)^4</f>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5">
+        <f>B2+C2/(1+B6)+D2/(1+B6)^2+E2/(1+B6)^3+F2/(1+B6)^4</f>
         <v>117.10477079862554</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C7" s="6">
         <f>SUM(B4:F4)</f>
         <v>117.10477079862552</v>
       </c>
-      <c r="C5" s="3">
-        <f>B4+NPV(H1,C2:F2)</f>
+      <c r="D7" s="6">
+        <f>B4+NPV(B6,C2:F2)</f>
         <v>117.10477079862551</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="B8" s="12">
         <f>IRR(B2:F2)</f>
         <v>0.45526117585263171</v>
       </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,185 +822,192 @@
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="4">
         <v>2</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="4">
         <v>3</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="4">
         <v>4</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="4">
         <v>5</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="4">
         <v>6</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="4">
         <v>7</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>-100</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
         <v>25</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>25</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>50</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>50</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="B3" s="4"/>
+      <c r="C3" s="11">
         <v>0.15</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="11">
         <v>0.15</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="11">
         <v>0.15</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="11">
         <v>0.15</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="11">
         <v>0.1</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="11">
         <v>0.1</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="11">
         <v>0.1</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="11">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <f>1/(1+C3)</f>
         <v>0.86956521739130443</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <f>C4/(1+D3)</f>
         <v>0.7561436672967865</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <f t="shared" ref="E4:J4" si="0">D4/(1+E3)</f>
         <v>0.65751623243198831</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <f t="shared" si="0"/>
         <v>0.57175324559303331</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <f t="shared" si="0"/>
         <v>0.51977567781184841</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <f t="shared" si="0"/>
         <v>0.47252334346531671</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <f t="shared" si="0"/>
         <v>0.42956667587756059</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <f t="shared" si="0"/>
         <v>0.3905151598886914</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <f>B2*B4</f>
         <v>-100</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <f t="shared" ref="C5:J5" si="1">C2*C4</f>
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <f t="shared" si="1"/>
         <v>16.437905810799709</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <f t="shared" si="1"/>
         <v>14.293831139825834</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <f t="shared" si="1"/>
         <v>25.988783890592419</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <f t="shared" si="1"/>
         <v>23.626167173265834</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <f t="shared" si="1"/>
         <v>78.103031977738283</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B7" s="4">
         <f>SUM(B5:J5)</f>
         <v>58.449719992222064</v>
       </c>
@@ -815,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,50 +1030,65 @@
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="5">
         <v>115</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>-150</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>50</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>125</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="13">
         <f>B4+NPV(10%,C4:E4)</f>
         <v>111.45755071374901</v>
       </c>
@@ -881,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,106 +1111,130 @@
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="4">
         <v>2</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="4">
         <v>3</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="4">
         <v>4</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4">
         <v>-1200</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
         <v>300</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>500</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>150</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>750</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="13">
         <f>B2+NPV(15%,C2:G2)</f>
         <v>-185.75324528229737</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>4</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
         <v>-1200</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
         <v>300</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>500</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>150</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>750</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="14">
         <f>B7+NPV(15%/4,C7:G7)</f>
         <v>279.79357622484895</v>
       </c>
@@ -1003,25 +1246,72 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:B7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6">
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="F2" s="13">
         <f>-50+PV(9%/4,4*5,-3)</f>
         <v>-2.108862890072345</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1030,117 +1320,141 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>4</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="H1">
-        <v>6</v>
-      </c>
-      <c r="I1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="4">
+        <v>-125</v>
+      </c>
+      <c r="C2" s="4">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4">
+        <v>40</v>
+      </c>
+      <c r="E2" s="4">
+        <v>50</v>
+      </c>
+      <c r="F2" s="4">
+        <v>40</v>
+      </c>
+      <c r="G2" s="4">
+        <v>30</v>
+      </c>
+      <c r="H2" s="4">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
-        <v>-125</v>
-      </c>
-      <c r="C2">
+      <c r="B3" s="4">
+        <v>-150</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4">
         <v>30</v>
       </c>
-      <c r="D2">
+      <c r="G3" s="4">
         <v>40</v>
       </c>
-      <c r="E2">
+      <c r="H3" s="4">
         <v>50</v>
       </c>
-      <c r="F2">
-        <v>40</v>
-      </c>
-      <c r="G2">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>20</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>-150</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>30</v>
-      </c>
-      <c r="G3">
-        <v>40</v>
-      </c>
-      <c r="H3">
-        <v>50</v>
-      </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="13">
         <f>NPV(10%/4,C2:I2)+B2</f>
         <v>77.183083166943987</v>
       </c>
-      <c r="B5" s="6">
+      <c r="C6" s="13">
         <f>B3+NPV(10%/4,C3:I3)</f>
         <v>84.689494536731274</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="13">
         <f>NPV(18%/4,C2:I2)+B2</f>
         <v>64.474346704669557</v>
       </c>
-      <c r="B6" s="6">
+      <c r="C7" s="13">
         <f>B3+NPV(18%/4,C3:I3)</f>
         <v>60.512315597098848</v>
       </c>
@@ -1152,10 +1466,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,557 +1477,644 @@
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4">
+        <v>8</v>
+      </c>
+      <c r="L1" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="F1">
-        <v>3</v>
-      </c>
-      <c r="G1">
-        <v>4</v>
-      </c>
-      <c r="H1">
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4">
         <v>5</v>
       </c>
-      <c r="I1">
-        <v>6</v>
-      </c>
-      <c r="J1">
-        <v>7</v>
-      </c>
-      <c r="K1">
-        <v>8</v>
-      </c>
-      <c r="L1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" s="4">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4">
+        <v>5</v>
+      </c>
+      <c r="J3" s="4">
+        <v>5</v>
+      </c>
+      <c r="K3" s="4">
+        <v>5</v>
+      </c>
+      <c r="L3" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="J4" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="L4" s="4">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>2.7</v>
-      </c>
-      <c r="D4">
-        <v>2.7</v>
-      </c>
-      <c r="E4">
-        <v>2.7</v>
-      </c>
-      <c r="F4">
-        <v>2.7</v>
-      </c>
-      <c r="G4">
-        <v>2.7</v>
-      </c>
-      <c r="H4">
-        <v>2.7</v>
-      </c>
-      <c r="I4">
-        <v>2.7</v>
-      </c>
-      <c r="J4">
-        <v>2.7</v>
-      </c>
-      <c r="K4">
-        <v>2.7</v>
-      </c>
-      <c r="L4">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4">
+        <v>50</v>
+      </c>
+      <c r="G5" s="4">
+        <v>100</v>
+      </c>
+      <c r="H5" s="4">
+        <v>150</v>
+      </c>
+      <c r="I5" s="4">
+        <v>200</v>
+      </c>
+      <c r="J5" s="4">
+        <v>200</v>
+      </c>
+      <c r="K5" s="4">
+        <v>200</v>
+      </c>
+      <c r="L5" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>150</v>
-      </c>
-      <c r="I5">
-        <v>200</v>
-      </c>
-      <c r="J5">
-        <v>200</v>
-      </c>
-      <c r="K5">
-        <v>200</v>
-      </c>
-      <c r="L5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4">
         <f>C3*C5</f>
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <f t="shared" ref="D7:L7" si="0">D3*D5</f>
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="4">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="4">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
+      <c r="N7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4">
         <f>C4*C5</f>
         <v>0</v>
       </c>
-      <c r="D8">
-        <f t="shared" ref="D8:L8" si="1">D4*D5</f>
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="4">
+        <f t="shared" ref="D8" si="1">D4*D5</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
         <f>-E4*E5</f>
         <v>-27</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <f t="shared" ref="F8:L8" si="2">-F4*F5</f>
         <v>-135</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <f t="shared" si="2"/>
         <v>-270</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <f t="shared" si="2"/>
         <v>-405</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <f t="shared" si="2"/>
         <v>-540</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <f t="shared" si="2"/>
         <v>-540</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="4">
         <f t="shared" si="2"/>
         <v>-540</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="4">
         <f t="shared" si="2"/>
         <v>-540</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="N8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>-70</v>
+      </c>
+      <c r="F9" s="4">
+        <v>-70</v>
+      </c>
+      <c r="G9" s="4">
+        <v>-70</v>
+      </c>
+      <c r="H9" s="4">
+        <v>-70</v>
+      </c>
+      <c r="I9" s="4">
+        <v>-70</v>
+      </c>
+      <c r="J9" s="4">
+        <v>-70</v>
+      </c>
+      <c r="K9" s="4">
+        <v>-70</v>
+      </c>
+      <c r="L9" s="4">
+        <v>-70</v>
+      </c>
+      <c r="N9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>-70</v>
-      </c>
-      <c r="F9">
-        <v>-70</v>
-      </c>
-      <c r="G9">
-        <v>-70</v>
-      </c>
-      <c r="H9">
-        <v>-70</v>
-      </c>
-      <c r="I9">
-        <v>-70</v>
-      </c>
-      <c r="J9">
-        <v>-70</v>
-      </c>
-      <c r="K9">
-        <v>-70</v>
-      </c>
-      <c r="L9">
-        <v>-70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4">
         <f>SUM(C7:C9)</f>
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <f t="shared" ref="D10:L10" si="3">SUM(D7:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <f t="shared" si="3"/>
         <v>-47</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <f t="shared" si="3"/>
         <v>275</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="4">
         <f t="shared" si="3"/>
         <v>390</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="4">
         <f t="shared" si="3"/>
         <v>390</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="4">
         <f t="shared" si="3"/>
         <v>390</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="4">
         <f t="shared" si="3"/>
         <v>390</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="N10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
         <f>-0.2*F10</f>
         <v>-9</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <f t="shared" ref="G11:L11" si="4">-0.2*G10</f>
         <v>-32</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <f t="shared" si="4"/>
         <v>-55</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="4">
         <f t="shared" si="4"/>
         <v>-78</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="4">
         <f t="shared" si="4"/>
         <v>-78</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="4">
         <f t="shared" si="4"/>
         <v>-78</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="4">
         <f t="shared" si="4"/>
         <v>-78</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="N11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="N12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13">
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4">
         <f>SUM(C10:C11)</f>
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <f t="shared" ref="D13:L13" si="5">SUM(D10:D11)</f>
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <f t="shared" si="5"/>
         <v>-47</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4">
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="4">
         <f t="shared" si="5"/>
         <v>220</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="4">
         <f t="shared" si="5"/>
         <v>312</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="4">
         <f t="shared" si="5"/>
         <v>312</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="4">
         <f t="shared" si="5"/>
         <v>312</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="4">
         <f t="shared" si="5"/>
         <v>312</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="N13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4">
+        <v>-500</v>
+      </c>
+      <c r="D14" s="4">
+        <v>-250</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>90</v>
+      </c>
+      <c r="N15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C14">
-        <v>-500</v>
-      </c>
-      <c r="D14">
-        <v>-250</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18">
+      <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="4">
         <f>SUM(C13:C15)</f>
         <v>-500</v>
       </c>
-      <c r="D18">
-        <f t="shared" ref="D18:L18" si="6">SUM(D13:D15)</f>
+      <c r="D17" s="4">
+        <f>SUM(D13:D15)</f>
         <v>-250</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="6"/>
+      <c r="E17" s="4">
+        <f>SUM(E13:E15)</f>
         <v>-47</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="6"/>
+      <c r="F17" s="4">
+        <f>SUM(F13:F15)</f>
         <v>36</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="6"/>
+      <c r="G17" s="4">
+        <f>SUM(G13:G15)</f>
         <v>128</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="6"/>
+      <c r="H17" s="4">
+        <f>SUM(H13:H15)</f>
         <v>220</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="6"/>
+      <c r="I17" s="4">
+        <f>SUM(I13:I15)</f>
         <v>312</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="6"/>
+      <c r="J17" s="4">
+        <f>SUM(J13:J15)</f>
         <v>312</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="6"/>
+      <c r="K17" s="4">
+        <f>SUM(K13:K15)</f>
         <v>312</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="6"/>
+      <c r="L17" s="4">
+        <f>SUM(L13:L15)</f>
         <v>402</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <f>IRR(C18:L18)</f>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="16">
+        <f>IRR(C17:L17)</f>
         <v>0.12963081334120652</v>
       </c>
     </row>
@@ -1724,10 +2125,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,158 +2136,180 @@
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="4">
         <v>2</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="4">
         <v>3</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="4">
         <v>4</v>
       </c>
-      <c r="H1" s="1">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="J1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>-100</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>20</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>50</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>90</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4">
         <f>B2</f>
         <v>-100</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <f>B2+C2</f>
         <v>-80</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <f>SUM(B2:D2)</f>
         <v>-30</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <f>SUM(B2:E2)</f>
         <v>60</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <f>SUM(B2:F2)</f>
         <v>210</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4">
-        <f>1/(1+$H$1)</f>
+      <c r="C4" s="4">
+        <f>1/(1+$B$8)</f>
         <v>0.89285714285714279</v>
       </c>
-      <c r="D4">
-        <f>C4/(1+$H$1)</f>
+      <c r="D4" s="4">
+        <f>C4/(1+$B$8)</f>
         <v>0.79719387755102022</v>
       </c>
-      <c r="E4">
-        <f t="shared" ref="E4:F4" si="0">D4/(1+$H$1)</f>
+      <c r="E4" s="4">
+        <f>D4/(1+$B$8)</f>
         <v>0.71178024781341087</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
+      <c r="F4" s="4">
+        <f>E4/(1+$B$8)</f>
         <v>0.6355180784048311</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <f>B2*B4</f>
         <v>-100</v>
       </c>
-      <c r="C5">
-        <f t="shared" ref="C5:F5" si="1">C2*C4</f>
+      <c r="C5" s="4">
+        <f t="shared" ref="C5:F5" si="0">C2*C4</f>
         <v>17.857142857142854</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
         <v>39.85969387755101</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
         <v>64.060222303206984</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
         <v>95.327711760724668</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4">
         <f>B5</f>
         <v>-100</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <f>B5+C5</f>
         <v>-82.142857142857139</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <f>SUM(B5:D5)</f>
         <v>-42.283163265306129</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <f>SUM(B5:E5)</f>
         <v>21.777059037900855</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <f>SUM(B5:F5)</f>
         <v>117.10477079862552</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10">
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="17">
+        <v>117.10477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="4">
         <f>1 +117/100</f>
         <v>2.17</v>
       </c>
@@ -1898,15 +2321,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1928,10 +2351,13 @@
       <c r="G1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>-1200</v>
@@ -1951,10 +2377,13 @@
       <c r="G2">
         <v>750</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <f>B2</f>
@@ -1968,22 +2397,22 @@
         <f>SUM(B2:D2)</f>
         <v>-900</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="3">
         <f>SUM(B2:E2)</f>
         <v>-400</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <f>SUM(B2:F2)</f>
         <v>-250</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <f>SUM(B2:G2)</f>
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>-1200</v>
@@ -2004,7 +2433,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <f>B4</f>
         <v>-1200</v>
@@ -2013,15 +2442,15 @@
         <f>SUM(B4:C4)</f>
         <v>-1000</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="3">
         <f>SUM(B4:D4)</f>
         <v>-700</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <f>SUM(B4:E4)</f>
         <v>-300</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <f>SUM(B4:F4)</f>
         <v>100</v>
       </c>
@@ -2030,14 +2459,14 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="18" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
